--- a/data/nina-williams-tekken-8-frame-data.xlsx
+++ b/data/nina-williams-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>16</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+9~+10</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -554,15 +546,11 @@
         <v>15</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -586,15 +574,11 @@
         <v>32</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+2~+3</t>
-        </is>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -618,15 +602,11 @@
         <v>50</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+34(-24)</t>
-        </is>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -650,15 +630,11 @@
         <v>37</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -706,15 +682,11 @@
         <v>37</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -742,15 +714,11 @@
         <v>15</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -772,15 +740,11 @@
       <c r="D11" t="n">
         <v>12</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -806,15 +770,11 @@
       <c r="D12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-5~-4</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -842,15 +802,11 @@
         <v>22</v>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-4~-3</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+1~+2</t>
-        </is>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -878,15 +834,11 @@
         <v>43</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-11~-10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+15~+16</t>
-        </is>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -916,15 +868,11 @@
       <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -946,15 +894,11 @@
       <c r="D16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -978,15 +922,11 @@
         <v>25</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -1012,15 +952,11 @@
       <c r="D18" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1044,15 +980,11 @@
         <v>25</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1078,15 +1010,11 @@
       <c r="D20" t="n">
         <v>14</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-5</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1106,15 +1034,11 @@
         <v>36</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+36</t>
-        </is>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
@@ -1138,15 +1062,11 @@
         <v>18</v>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1170,15 +1090,11 @@
         <v>30</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1202,15 +1118,11 @@
         <v>50</v>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1236,15 +1148,11 @@
       <c r="D25" t="n">
         <v>18</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-10~-9</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+11~+12</t>
-        </is>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1268,15 +1176,11 @@
         <v>34</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1300,15 +1204,11 @@
         <v>20</v>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+15~+16</t>
-        </is>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1330,15 +1230,11 @@
       <c r="D28" t="n">
         <v>11</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1362,15 +1258,11 @@
         <v>37</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+36</t>
-        </is>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1394,15 +1286,11 @@
         <v>35</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
@@ -1426,15 +1314,11 @@
         <v>36</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+3~+4</t>
-        </is>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1458,15 +1342,11 @@
         <v>65</v>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-6~+0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1490,15 +1370,11 @@
         <v>56</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1526,15 +1402,11 @@
         <v>15</v>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1558,15 +1430,11 @@
         <v>15</v>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1592,15 +1460,11 @@
       <c r="D36" t="n">
         <v>12</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+4~-5</t>
-        </is>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1622,15 +1486,11 @@
       <c r="D37" t="n">
         <v>16</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1650,10 +1510,8 @@
         <v>0</v>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E38" t="n">
+        <v>6</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1680,15 +1538,11 @@
       <c r="D39" t="n">
         <v>15</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-15~-14</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+34 (+24)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>34</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1712,15 +1566,11 @@
         <v>32</v>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1750,15 +1600,11 @@
       <c r="D41" t="n">
         <v>12</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1782,15 +1628,11 @@
         <v>28</v>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1814,15 +1656,11 @@
         <v>48</v>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+9~+10</t>
-        </is>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1850,15 +1688,11 @@
         <v>28</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-15~?</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+1~+2</t>
-        </is>
+      <c r="E44" t="n">
+        <v>15</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1881,10 +1715,8 @@
         <v>65</v>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="F45" t="n">
+        <v>25</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1906,15 +1738,11 @@
       <c r="D46" t="n">
         <v>18</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1940,15 +1768,11 @@
       <c r="D47" t="n">
         <v>14</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+6~+7</t>
-        </is>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1970,15 +1794,11 @@
       <c r="D48" t="n">
         <v>20</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2006,15 +1826,11 @@
         <v>34</v>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+34 (-24)</t>
-        </is>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>34</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2038,15 +1854,11 @@
         <v>36</v>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-15~-14</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+27</t>
-        </is>
+      <c r="E50" t="n">
+        <v>15</v>
+      </c>
+      <c r="F50" t="n">
+        <v>27</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2072,15 +1884,11 @@
       <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2105,10 +1913,8 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F52" t="n">
+        <v>3</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2132,15 +1938,11 @@
         <v>8</v>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2164,15 +1966,11 @@
         <v>20</v>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2196,15 +1994,11 @@
         <v>15</v>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2230,15 +2024,11 @@
       <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E56" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2262,15 +2052,11 @@
         <v>10</v>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2294,15 +2080,11 @@
         <v>25</v>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2326,15 +2108,11 @@
         <v>8</v>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2360,15 +2138,11 @@
       <c r="D60" t="n">
         <v>10</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2388,15 +2162,11 @@
         <v>15</v>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-11~-10</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+0~+1</t>
-        </is>
+      <c r="E61" t="n">
+        <v>11</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2422,15 +2192,11 @@
       <c r="D62" t="n">
         <v>20</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E62" t="n">
+        <v>12</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2454,15 +2220,11 @@
         <v>33</v>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+17 (+0)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>17</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2492,15 +2254,11 @@
       <c r="D64" t="n">
         <v>16</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E64" t="n">
+        <v>17</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-6</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2520,15 +2278,11 @@
         <v>28</v>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-11~-9</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+12~+14</t>
-        </is>
+      <c r="E65" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -2552,15 +2306,11 @@
         <v>24</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2584,15 +2334,11 @@
         <v>44</v>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2618,15 +2364,11 @@
       <c r="D68" t="n">
         <v>12</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E68" t="n">
+        <v>15</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -2646,15 +2388,11 @@
         <v>16</v>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2682,15 +2420,11 @@
         <v>6</v>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E70" t="n">
+        <v>21</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-2</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2712,15 +2446,11 @@
       <c r="D71" t="n">
         <v>11</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E71" t="n">
+        <v>14</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2746,15 +2476,11 @@
       <c r="D72" t="n">
         <v>24</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-5~-4</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2784,15 +2510,11 @@
       <c r="D73" t="n">
         <v>20</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2818,15 +2540,11 @@
       <c r="D74" t="n">
         <v>18</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-17~-16</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E74" t="n">
+        <v>17</v>
+      </c>
+      <c r="F74" t="n">
+        <v>36</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2852,15 +2570,11 @@
       <c r="D75" t="n">
         <v>16</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-9a</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2880,15 +2594,11 @@
         <v>26</v>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+71 (+55)</t>
-        </is>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>71</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2915,10 +2625,8 @@
         <v>24</v>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+36~+50</t>
-        </is>
+      <c r="F77" t="n">
+        <v>36</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2940,15 +2648,11 @@
       <c r="D78" t="n">
         <v>20</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E78" t="n">
+        <v>37</v>
+      </c>
+      <c r="F78" t="n">
+        <v>14</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2974,15 +2678,11 @@
       <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-1~+0</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -3004,15 +2704,11 @@
       <c r="D80" t="n">
         <v>20</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-15~-14</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E80" t="n">
+        <v>15</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -3036,15 +2732,11 @@
         <v>23</v>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3072,15 +2764,11 @@
         <v>23</v>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3104,15 +2792,11 @@
         <v>23</v>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3138,15 +2822,11 @@
       <c r="D84" t="n">
         <v>11</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3172,15 +2852,11 @@
       <c r="D85" t="n">
         <v>15</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+34 (+24)</t>
-        </is>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>34</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3206,15 +2882,11 @@
       <c r="D86" t="n">
         <v>11</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3240,15 +2912,11 @@
       <c r="D87" t="n">
         <v>14</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E87" t="n">
+        <v>11</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3272,15 +2940,11 @@
         <v>23</v>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3304,15 +2968,11 @@
         <v>43</v>
       </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E89" t="n">
+        <v>12</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3340,15 +3000,11 @@
         <v>13</v>
       </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E90" t="n">
+        <v>19</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3372,15 +3028,11 @@
         <v>25</v>
       </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3408,15 +3060,11 @@
         <v>31</v>
       </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3440,15 +3088,11 @@
         <v>637</v>
       </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E93" t="n">
+        <v>13</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
@@ -3472,15 +3116,11 @@
         <v>46</v>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-17~-16</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+36(+26)</t>
-        </is>
+      <c r="E94" t="n">
+        <v>17</v>
+      </c>
+      <c r="F94" t="n">
+        <v>36</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3504,15 +3144,11 @@
         <v>47</v>
       </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3540,15 +3176,11 @@
         <v>13</v>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E96" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3572,15 +3204,11 @@
         <v>13</v>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3604,15 +3232,11 @@
         <v>13</v>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3638,15 +3262,11 @@
       <c r="D99" t="n">
         <v>28</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3672,15 +3292,11 @@
       <c r="D100" t="n">
         <v>31</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-37</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E100" t="n">
+        <v>37</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3706,15 +3322,11 @@
       <c r="D101" t="n">
         <v>12</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-2</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3738,15 +3350,11 @@
         <v>30</v>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-3~-1</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+3~+5</t>
-        </is>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -3766,15 +3374,11 @@
         <v>15</v>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+10~+11</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+23~+24</t>
-        </is>
+      <c r="E103" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>23</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3794,15 +3398,11 @@
         <v>15</v>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>+10~+11</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+23~+24</t>
-        </is>
+      <c r="E104" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>23</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3824,15 +3424,11 @@
       <c r="D105" t="n">
         <v>13</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E105" t="n">
+        <v>14</v>
+      </c>
+      <c r="F105" t="n">
+        <v>33</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -3854,15 +3450,11 @@
       <c r="D106" t="n">
         <v>20</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E106" t="n">
+        <v>14</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -3884,15 +3476,11 @@
       <c r="D107" t="n">
         <v>22</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+37 (-21)</t>
-        </is>
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>37</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3916,15 +3504,11 @@
         <v>30</v>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-6</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -3948,15 +3532,11 @@
         <v>15</v>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3981,10 +3561,8 @@
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F110" t="n">
+        <v>3</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -4010,15 +3588,11 @@
       <c r="D111" t="n">
         <v>14</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+16 (+6)</t>
-        </is>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -4044,15 +3618,11 @@
       <c r="D112" t="n">
         <v>23</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>+0~+5</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+5~+10</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4082,15 +3652,11 @@
       <c r="D113" t="n">
         <v>20</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E113" t="n">
+        <v>16</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -4112,15 +3678,11 @@
       <c r="D114" t="n">
         <v>14</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E114" t="n">
+        <v>15</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-4</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -4142,15 +3704,11 @@
       <c r="D115" t="n">
         <v>26</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
+      <c r="E115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>26</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -4176,15 +3734,11 @@
       <c r="D116" t="n">
         <v>12</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+29 (-32)</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>29</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4206,15 +3760,11 @@
       <c r="D117" t="n">
         <v>18</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4234,15 +3784,11 @@
         <v>20</v>
       </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+49 (+40)</t>
-        </is>
+      <c r="E118" t="n">
+        <v>13</v>
+      </c>
+      <c r="F118" t="n">
+        <v>49</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4268,15 +3814,11 @@
       <c r="D119" t="n">
         <v>14</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+21 (+11)</t>
-        </is>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>21</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4302,15 +3844,11 @@
       <c r="D120" t="n">
         <v>23</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-23~-16</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+9 (-1)</t>
-        </is>
+      <c r="E120" t="n">
+        <v>23</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4336,15 +3874,11 @@
       <c r="D121" t="n">
         <v>23</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-23~-16</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+9 (-1)</t>
-        </is>
+      <c r="E121" t="n">
+        <v>23</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4370,15 +3904,11 @@
       <c r="D122" t="n">
         <v>18</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E122" t="n">
+        <v>9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-1</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4398,15 +3928,11 @@
         <v>33</v>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E123" t="n">
+        <v>19</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-8</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4430,15 +3956,11 @@
         <v>47</v>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E124" t="n">
+        <v>6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4462,15 +3984,11 @@
         <v>33</v>
       </c>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -4492,15 +4010,11 @@
       <c r="D126" t="n">
         <v>43</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E126" t="n">
+        <v>17</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-6</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4522,15 +4036,11 @@
       <c r="D127" t="n">
         <v>25</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-11~-9</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+12~+14</t>
-        </is>
+      <c r="E127" t="n">
+        <v>11</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4554,15 +4064,11 @@
         <v>29</v>
       </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E128" t="n">
+        <v>8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4586,15 +4092,11 @@
         <v>49</v>
       </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E129" t="n">
+        <v>7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4620,15 +4122,11 @@
       <c r="D130" t="n">
         <v>20</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E130" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>36</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -4650,15 +4148,11 @@
       <c r="D131" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E131" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4684,15 +4178,11 @@
       <c r="D132" t="n">
         <v>20</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -4712,15 +4202,11 @@
         <v>32</v>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-4~-1</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4744,15 +4230,11 @@
         <v>33</v>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+34 (+19)</t>
-        </is>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>34</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4778,15 +4260,11 @@
       <c r="D135" t="n">
         <v>13</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E135" t="n">
+        <v>6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -4806,15 +4284,11 @@
         <v>35</v>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+34a (-24)</t>
-        </is>
+      <c r="E136" t="n">
+        <v>9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
@@ -4838,15 +4312,11 @@
         <v>37</v>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E137" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
@@ -4872,15 +4342,11 @@
       <c r="D138" t="n">
         <v>15</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E138" t="n">
+        <v>13</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -4902,15 +4368,11 @@
       <c r="D139" t="n">
         <v>13</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E139" t="n">
+        <v>13</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -4936,15 +4398,11 @@
       <c r="D140" t="n">
         <v>18</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-17~-16</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+36 (+26)</t>
-        </is>
+      <c r="E140" t="n">
+        <v>17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>36</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -4970,15 +4428,11 @@
       <c r="D141" t="n">
         <v>11</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-4~-3</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -4998,15 +4452,11 @@
         <v>37</v>
       </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+36</t>
-        </is>
+      <c r="E142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>36</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -5030,15 +4480,11 @@
         <v>39</v>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+14 (+5)</t>
-        </is>
+      <c r="E143" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
@@ -5062,15 +4508,11 @@
         <v>33</v>
       </c>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+34 (-24)</t>
-        </is>
+      <c r="E144" t="n">
+        <v>9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>34</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">

--- a/data/nina-williams-tekken-8-frame-data.xlsx
+++ b/data/nina-williams-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F6" t="n">
         <v>34</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
@@ -741,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F11" t="n">
         <v>-2</v>
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F20" t="n">
         <v>-5</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F21" t="n">
         <v>36</v>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F22" t="n">
         <v>-3</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F23" t="n">
         <v>-3</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
@@ -1149,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F25" t="n">
         <v>11</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F29" t="n">
         <v>36</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F30" t="n">
         <v>5</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F37" t="n">
         <v>5</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F39" t="n">
         <v>34</v>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F40" t="n">
         <v>7</v>
@@ -1601,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F41" t="n">
         <v>-3</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F43" t="n">
         <v>9</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F46" t="n">
         <v>6</v>
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F47" t="n">
         <v>6</v>
@@ -1795,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F48" t="n">
         <v>19</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F49" t="n">
         <v>34</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F50" t="n">
         <v>27</v>
@@ -1885,7 +1885,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F60" t="n">
         <v>5</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F63" t="n">
         <v>17</v>
@@ -2255,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F64" t="n">
         <v>-6</v>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F65" t="n">
         <v>12</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F67" t="n">
         <v>22</v>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F68" t="n">
         <v>-4</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F70" t="n">
         <v>-2</v>
@@ -2447,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F71" t="n">
         <v>10</v>
@@ -2477,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F72" t="n">
         <v>8</v>
@@ -2511,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F73" t="n">
         <v>4</v>
@@ -2541,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F74" t="n">
         <v>36</v>
@@ -2571,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F75" t="n">
         <v>2</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F76" t="n">
         <v>71</v>
@@ -2649,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F78" t="n">
         <v>14</v>
@@ -2679,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F79" t="n">
         <v>5</v>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F82" t="n">
         <v>4</v>
@@ -2823,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F85" t="n">
         <v>34</v>
@@ -2883,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F89" t="n">
         <v>16</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F90" t="n">
         <v>-8</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>5</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F92" t="n">
         <v>4</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F93" t="n">
         <v>-2</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F94" t="n">
         <v>36</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F95" t="n">
         <v>20</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>12</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F97" t="n">
         <v>3</v>
@@ -3263,7 +3263,7 @@
         <v>28</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -3293,7 +3293,7 @@
         <v>31</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>-37</v>
       </c>
       <c r="F100" t="n">
         <v>14</v>
@@ -3323,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F101" t="n">
         <v>-2</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F102" t="n">
         <v>3</v>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
         <v>23</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
         <v>23</v>
@@ -3425,7 +3425,7 @@
         <v>13</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F105" t="n">
         <v>33</v>
@@ -3451,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="E106" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F106" t="n">
         <v>6</v>
@@ -3477,7 +3477,7 @@
         <v>22</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F107" t="n">
         <v>37</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F111" t="n">
         <v>16</v>
@@ -3653,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F113" t="n">
         <v>20</v>
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F114" t="n">
         <v>-4</v>
@@ -3705,7 +3705,7 @@
         <v>26</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F115" t="n">
         <v>26</v>
@@ -3761,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F118" t="n">
         <v>49</v>
@@ -3815,7 +3815,7 @@
         <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F119" t="n">
         <v>21</v>
@@ -3845,7 +3845,7 @@
         <v>23</v>
       </c>
       <c r="E120" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F120" t="n">
         <v>9</v>
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F121" t="n">
         <v>9</v>
@@ -3905,7 +3905,7 @@
         <v>18</v>
       </c>
       <c r="E122" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F122" t="n">
         <v>-1</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F123" t="n">
         <v>-8</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F124" t="n">
         <v>5</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F125" t="n">
         <v>6</v>
@@ -4011,7 +4011,7 @@
         <v>43</v>
       </c>
       <c r="E126" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F126" t="n">
         <v>-6</v>
@@ -4037,7 +4037,7 @@
         <v>25</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F127" t="n">
         <v>12</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F129" t="n">
         <v>22</v>
@@ -4123,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="E130" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F130" t="n">
         <v>36</v>
@@ -4149,7 +4149,7 @@
         <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
         <v>12</v>
@@ -4179,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="E132" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F132" t="n">
         <v>-2</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F133" t="n">
         <v>17</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F134" t="n">
         <v>34</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F135" t="n">
         <v>5</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F136" t="n">
         <v>34</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F137" t="n">
         <v>17</v>
@@ -4343,7 +4343,7 @@
         <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F138" t="n">
         <v>28</v>
@@ -4369,7 +4369,7 @@
         <v>13</v>
       </c>
       <c r="E139" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F139" t="n">
         <v>2</v>
@@ -4399,7 +4399,7 @@
         <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F140" t="n">
         <v>36</v>
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F141" t="n">
         <v>7</v>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F142" t="n">
         <v>36</v>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F143" t="n">
         <v>14</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F144" t="n">
         <v>34</v>
